--- a/OUTPUT API/Mattox, Kyle.xlsx
+++ b/OUTPUT API/Mattox, Kyle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
   <si>
     <t>EMPLID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>CALL</t>
   </si>
   <si>
-    <t>CBACK</t>
-  </si>
-  <si>
     <t>REG</t>
   </si>
   <si>
@@ -191,18 +188,12 @@
     <t>21.91</t>
   </si>
   <si>
-    <t>2.07</t>
-  </si>
-  <si>
     <t>9.94</t>
   </si>
   <si>
     <t>13.50</t>
   </si>
   <si>
-    <t>9.98</t>
-  </si>
-  <si>
     <t>9.82</t>
   </si>
   <si>
@@ -212,16 +203,10 @@
     <t>15.22</t>
   </si>
   <si>
-    <t>8.28</t>
-  </si>
-  <si>
     <t>7.69</t>
   </si>
   <si>
     <t>15.46</t>
-  </si>
-  <si>
-    <t>7.95</t>
   </si>
   <si>
     <t>6.95</t>
@@ -612,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,13 +682,13 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
         <v>32</v>
@@ -723,19 +708,19 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
         <v>32</v>
@@ -746,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -754,9 +739,6 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" t="s">
         <v>38</v>
       </c>
@@ -764,10 +746,10 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -778,13 +760,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
@@ -793,10 +775,10 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T5" t="s">
         <v>32</v>
@@ -807,13 +789,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
         <v>40</v>
@@ -822,10 +804,10 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T6" t="s">
         <v>32</v>
@@ -836,25 +818,25 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
@@ -865,25 +847,25 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T8" t="s">
         <v>32</v>
@@ -894,25 +876,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
         <v>32</v>
@@ -923,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -932,16 +914,16 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
@@ -952,143 +934,27 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" t="s">
-        <v>67</v>
-      </c>
-      <c r="S13" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" t="s">
-        <v>69</v>
-      </c>
-      <c r="S15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1099,7 +965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1184,13 +1050,13 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
         <v>32</v>
@@ -1210,13 +1076,13 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
         <v>32</v>
@@ -1236,19 +1102,19 @@
         <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -1268,19 +1134,19 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T5" t="s">
         <v>32</v>
@@ -1291,7 +1157,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1299,20 +1165,17 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" t="s">
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T6" t="s">
         <v>32</v>
@@ -1323,28 +1186,25 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
@@ -1355,25 +1215,25 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T8" t="s">
         <v>32</v>
@@ -1384,25 +1244,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
         <v>32</v>
@@ -1413,25 +1273,25 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
         <v>60</v>
       </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
@@ -1442,25 +1302,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
         <v>32</v>
@@ -1471,25 +1331,25 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T12" t="s">
         <v>32</v>
@@ -1500,25 +1360,25 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T13" t="s">
         <v>32</v>
@@ -1529,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -1538,16 +1398,16 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T14" t="s">
         <v>32</v>
@@ -1558,7 +1418,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -1567,16 +1427,16 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T15" t="s">
         <v>32</v>
@@ -1587,436 +1447,31 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" t="s">
-        <v>66</v>
-      </c>
-      <c r="S17" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" t="s">
-        <v>79</v>
-      </c>
-      <c r="S18" t="s">
-        <v>70</v>
-      </c>
-      <c r="T18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" t="s">
-        <v>67</v>
-      </c>
-      <c r="S19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" t="s">
-        <v>68</v>
-      </c>
-      <c r="S20" t="s">
-        <v>70</v>
-      </c>
-      <c r="T20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" t="s">
-        <v>69</v>
-      </c>
-      <c r="S21" t="s">
-        <v>70</v>
-      </c>
-      <c r="T21" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD380D9E-F776-41AD-9462-618171B5F78D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8272AAFB-7763-44DC-AEEB-47794940B7D6}"/>
 </file>
--- a/OUTPUT API/Mattox, Kyle.xlsx
+++ b/OUTPUT API/Mattox, Kyle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="80">
   <si>
     <t>EMPLID</t>
   </si>
@@ -119,6 +119,9 @@
     <t>CALL</t>
   </si>
   <si>
+    <t>CBACK</t>
+  </si>
+  <si>
     <t>REG</t>
   </si>
   <si>
@@ -188,12 +191,18 @@
     <t>21.91</t>
   </si>
   <si>
+    <t>2.07</t>
+  </si>
+  <si>
     <t>9.94</t>
   </si>
   <si>
     <t>13.50</t>
   </si>
   <si>
+    <t>9.98</t>
+  </si>
+  <si>
     <t>9.82</t>
   </si>
   <si>
@@ -203,10 +212,16 @@
     <t>15.22</t>
   </si>
   <si>
+    <t>8.28</t>
+  </si>
+  <si>
     <t>7.69</t>
   </si>
   <si>
     <t>15.46</t>
+  </si>
+  <si>
+    <t>7.95</t>
   </si>
   <si>
     <t>6.95</t>
@@ -597,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,13 +697,13 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
         <v>32</v>
@@ -708,19 +723,19 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
         <v>32</v>
@@ -731,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -739,6 +754,9 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
       <c r="H4" t="s">
         <v>38</v>
       </c>
@@ -746,10 +764,10 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -760,13 +778,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
@@ -775,10 +793,10 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
         <v>32</v>
@@ -789,13 +807,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>40</v>
@@ -804,10 +822,10 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s">
         <v>32</v>
@@ -818,25 +836,25 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
@@ -847,25 +865,25 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s">
         <v>32</v>
@@ -876,25 +894,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s">
         <v>32</v>
@@ -905,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -914,16 +932,16 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
@@ -934,27 +952,143 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="S15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -965,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,13 +1184,13 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
         <v>32</v>
@@ -1076,13 +1210,13 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
         <v>32</v>
@@ -1102,19 +1236,19 @@
         <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -1134,19 +1268,19 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
         <v>32</v>
@@ -1157,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1165,17 +1299,20 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
       <c r="H6" t="s">
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s">
         <v>32</v>
@@ -1186,25 +1323,28 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
@@ -1215,25 +1355,25 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s">
         <v>32</v>
@@ -1244,25 +1384,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s">
         <v>32</v>
@@ -1273,25 +1413,25 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
         <v>60</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
@@ -1302,25 +1442,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s">
         <v>32</v>
@@ -1331,25 +1471,25 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s">
         <v>32</v>
@@ -1360,25 +1500,25 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s">
         <v>32</v>
@@ -1389,7 +1529,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -1398,16 +1538,16 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s">
         <v>32</v>
@@ -1418,7 +1558,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -1427,16 +1567,16 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T15" t="s">
         <v>32</v>
@@ -1447,27 +1587,172 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" t="s">
+        <v>70</v>
+      </c>
+      <c r="T21" t="s">
         <v>32</v>
       </c>
     </row>
